--- a/Files/Vaccine_April 1, 2021.xlsx
+++ b/Files/Vaccine_April 1, 2021.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="293">
   <si>
     <t xml:space="preserve">Vaccine</t>
   </si>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">Contract Number</t>
   </si>
   <si>
-    <t xml:space="preserve">DTaP [1]</t>
+    <t xml:space="preserve">DTaP </t>
   </si>
   <si>
     <t xml:space="preserve">Daptacel</t>
@@ -89,7 +89,7 @@
     <t xml:space="preserve">75D30121D10573</t>
   </si>
   <si>
-    <t xml:space="preserve">DTaP-IPV [2]</t>
+    <t xml:space="preserve">DTaP-IPV </t>
   </si>
   <si>
     <t xml:space="preserve">Quadracel</t>
@@ -116,7 +116,7 @@
     <t xml:space="preserve">$55.639</t>
   </si>
   <si>
-    <t xml:space="preserve">DTaP-Hep B-IPV [4]</t>
+    <t xml:space="preserve">DTaP-Hep B-IPV </t>
   </si>
   <si>
     <t xml:space="preserve">Pediarix</t>
@@ -131,7 +131,7 @@
     <t xml:space="preserve">$90.045</t>
   </si>
   <si>
-    <t xml:space="preserve">DTaP-IP-HI [4]</t>
+    <t xml:space="preserve">DTaP-IP-HI </t>
   </si>
   <si>
     <t xml:space="preserve">Pentacel</t>
@@ -149,7 +149,7 @@
     <t xml:space="preserve">N/A</t>
   </si>
   <si>
-    <t xml:space="preserve">e-IPV [5]</t>
+    <t xml:space="preserve">e-IPV </t>
   </si>
   <si>
     <t xml:space="preserve">IPOL</t>
@@ -167,7 +167,7 @@
     <t xml:space="preserve">$36.89</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis A Pediatric [5]</t>
+    <t xml:space="preserve">Hepatitis A Pediatric </t>
   </si>
   <si>
     <t xml:space="preserve">Vaqta</t>
@@ -200,7 +200,7 @@
     <t xml:space="preserve">$34.847</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis A-Hepatitis B 18 only [3]</t>
+    <t xml:space="preserve">Hepatitis A-Hepatitis B 18 only </t>
   </si>
   <si>
     <t xml:space="preserve">Twinrix</t>
@@ -215,8 +215,7 @@
     <t xml:space="preserve">$112.354</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis B [5]
-Pediatric/Adolescent</t>
+    <t xml:space="preserve">Hepatitis B  Pediatric/Adolescent</t>
   </si>
   <si>
     <t xml:space="preserve">Engerix B</t>
@@ -231,8 +230,7 @@
     <t xml:space="preserve">$25.351</t>
   </si>
   <si>
-    <t xml:space="preserve">Recombivax
-HB</t>
+    <t xml:space="preserve">Recombivax HB</t>
   </si>
   <si>
     <t xml:space="preserve">00006-4981-00</t>
@@ -244,7 +242,7 @@
     <t xml:space="preserve">$24.878</t>
   </si>
   <si>
-    <t xml:space="preserve">Hib [5]</t>
+    <t xml:space="preserve">Hib </t>
   </si>
   <si>
     <t xml:space="preserve">PedvaxHIB</t>
@@ -283,7 +281,7 @@
     <t xml:space="preserve">$11.569</t>
   </si>
   <si>
-    <t xml:space="preserve">HPV - Human Papillomavirus 9-valent [5]</t>
+    <t xml:space="preserve">HPV - Human Papillomavirus 9-valent </t>
   </si>
   <si>
     <t xml:space="preserve">Gardasil9</t>
@@ -298,7 +296,7 @@
     <t xml:space="preserve">$239.290</t>
   </si>
   <si>
-    <t xml:space="preserve">MENB - Meningococcal Group B [5]</t>
+    <t xml:space="preserve">MENB - Meningococcal Group B </t>
   </si>
   <si>
     <t xml:space="preserve">Trumenba</t>
@@ -331,7 +329,7 @@
     <t xml:space="preserve">$191.745</t>
   </si>
   <si>
-    <t xml:space="preserve">Meningococcal Conjugate (Groups A, C, Y and W-135) [5]</t>
+    <t xml:space="preserve">Meningococcal Conjugate (Groups A, C, Y and W-135) </t>
   </si>
   <si>
     <t xml:space="preserve">Menactra</t>
@@ -367,7 +365,7 @@
     <t xml:space="preserve">$140.006</t>
   </si>
   <si>
-    <t xml:space="preserve">Measles, Mumps and Rubella (MMR) [1]</t>
+    <t xml:space="preserve">Measles, Mumps and Rubella (MMR) </t>
   </si>
   <si>
     <t xml:space="preserve">M-M-RII</t>
@@ -382,7 +380,7 @@
     <t xml:space="preserve">$82.499</t>
   </si>
   <si>
-    <t xml:space="preserve">MMR/Varicella [2]</t>
+    <t xml:space="preserve">MMR/Varicella </t>
   </si>
   <si>
     <t xml:space="preserve">ProQuad</t>
@@ -397,8 +395,7 @@
     <t xml:space="preserve">$236.034</t>
   </si>
   <si>
-    <t xml:space="preserve">Pneumococcal
-13-valent [5] (Pediatric)</t>
+    <t xml:space="preserve">Pneumococcal 13-valent  (Pediatric)</t>
   </si>
   <si>
     <t xml:space="preserve">Prevnar 13TM</t>
@@ -428,7 +425,7 @@
     <t xml:space="preserve">$110.454</t>
   </si>
   <si>
-    <t xml:space="preserve">Rotavirus, Live, Oral, Pentavalent [5]</t>
+    <t xml:space="preserve">Rotavirus, Live, Oral, Pentavalent </t>
   </si>
   <si>
     <t xml:space="preserve">RotaTeq</t>
@@ -455,7 +452,7 @@
     <t xml:space="preserve">$87.882</t>
   </si>
   <si>
-    <t xml:space="preserve">Rotavirus, Live, Oral, Oral [5]</t>
+    <t xml:space="preserve">Rotavirus, Live, Oral, Oral </t>
   </si>
   <si>
     <t xml:space="preserve">Rotarix</t>
@@ -470,7 +467,7 @@
     <t xml:space="preserve">$127.032</t>
   </si>
   <si>
-    <t xml:space="preserve">Tetanus and Diphtheria Toxoids [3]</t>
+    <t xml:space="preserve">Tetanus and Diphtheria Toxoids </t>
   </si>
   <si>
     <t xml:space="preserve">Tenivac</t>
@@ -506,7 +503,7 @@
     <t xml:space="preserve">75D30121D10578</t>
   </si>
   <si>
-    <t xml:space="preserve">Tetanus Toxoid, Reduced Diphtheria Toxoid and Acellular Pertussis [1]</t>
+    <t xml:space="preserve">Tetanus Toxoid, Reduced Diphtheria Toxoid and Acellular Pertussis </t>
   </si>
   <si>
     <t xml:space="preserve">Boostrix</t>
@@ -542,7 +539,7 @@
     <t xml:space="preserve">5 pack - 1 dose syringe</t>
   </si>
   <si>
-    <t xml:space="preserve">Varicella [5]</t>
+    <t xml:space="preserve">Varicella </t>
   </si>
   <si>
     <t xml:space="preserve">Varivax</t>
@@ -557,7 +554,7 @@
     <t xml:space="preserve">$142.474</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis A Adult [5]</t>
+    <t xml:space="preserve">Hepatitis A Adult </t>
   </si>
   <si>
     <t xml:space="preserve">00006-4096-02</t>
@@ -584,13 +581,13 @@
     <t xml:space="preserve">75D30120D08572</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis A-Hepatitis B Adult [3]</t>
+    <t xml:space="preserve">Hepatitis A-Hepatitis B Adult </t>
   </si>
   <si>
     <t xml:space="preserve">$62.035</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis B Adult [5]</t>
+    <t xml:space="preserve">Hepatitis B Adult </t>
   </si>
   <si>
     <t xml:space="preserve">Heplisav-B</t>
@@ -611,9 +608,6 @@
     <t xml:space="preserve">75D30120D08571</t>
   </si>
   <si>
-    <t xml:space="preserve">Recombivax HB</t>
-  </si>
-  <si>
     <t xml:space="preserve">00006-4995-41</t>
   </si>
   <si>
@@ -638,13 +632,13 @@
     <t xml:space="preserve">58160-0821-52</t>
   </si>
   <si>
-    <t xml:space="preserve">HPV-Human Papillomavirus 9 Valent [5]</t>
+    <t xml:space="preserve">HPV-Human Papillomavirus 9 Valent </t>
   </si>
   <si>
     <t xml:space="preserve">$140.587</t>
   </si>
   <si>
-    <t xml:space="preserve">Measles, Mumps,  Rubella [1]</t>
+    <t xml:space="preserve">Measles, Mumps,  Rubella </t>
   </si>
   <si>
     <t xml:space="preserve">$48.861</t>
@@ -671,8 +665,7 @@
     <t xml:space="preserve">$106.888</t>
   </si>
   <si>
-    <t xml:space="preserve">Pneumococcal
-13-valent [5]</t>
+    <t xml:space="preserve">Pneumococcal 13-valent </t>
   </si>
   <si>
     <t xml:space="preserve">Prevnar 13</t>
@@ -732,12 +725,10 @@
     <t xml:space="preserve">$162.009</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza [5]
-(Age 6 months and older)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fluzone
-Quadrivalent</t>
+    <t xml:space="preserve">Influenza  (Age 6 months and older)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fluzone Quadrivalent</t>
   </si>
   <si>
     <t xml:space="preserve">49281-0635-15</t>
@@ -764,8 +755,7 @@
     <t xml:space="preserve">49281-0421-10</t>
   </si>
   <si>
-    <t xml:space="preserve">Fluarix
-Quadrivalent</t>
+    <t xml:space="preserve">Fluarix Quadrivalent</t>
   </si>
   <si>
     <t xml:space="preserve">58160-0887-52</t>
@@ -783,15 +773,13 @@
     <t xml:space="preserve">75D30121D10193</t>
   </si>
   <si>
-    <t xml:space="preserve">FluLaval
-Quadrivalent</t>
+    <t xml:space="preserve">FluLaval Quadrivalent</t>
   </si>
   <si>
     <t xml:space="preserve">19515-0818-52</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza [5]
-(Age 4 years and older)</t>
+    <t xml:space="preserve">Influenza  (Age 4 years and older)</t>
   </si>
   <si>
     <t xml:space="preserve">Flucelvax Quadrivalent</t>
@@ -821,8 +809,7 @@
     <t xml:space="preserve">$25.01</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza [5]
-(Age 6 -35 months)</t>
+    <t xml:space="preserve">Influenza  (Age 6 -35 months)</t>
   </si>
   <si>
     <t xml:space="preserve">Afluria Quadrivalent</t>
@@ -837,12 +824,10 @@
     <t xml:space="preserve">$19.11</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza [5]
-Live, Intranasal (Age 2-49 years)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FluMist
-Quadrivalent</t>
+    <t xml:space="preserve">Influenza  Live, Intranasal (Age 2-49 years)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FluMist Quadrivalent</t>
   </si>
   <si>
     <t xml:space="preserve">66019-0308-10</t>
@@ -887,12 +872,7 @@
     <t xml:space="preserve">$15.80</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza [5]
-(Age 36 months and older)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Afluria
-Quadrivalent</t>
+    <t xml:space="preserve">Influenza  (Age 36 months and older)</t>
   </si>
   <si>
     <t xml:space="preserve">33332-0321-01</t>
@@ -2314,19 +2294,19 @@
         <v>190</v>
       </c>
       <c r="B7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" t="s">
         <v>197</v>
-      </c>
-      <c r="C7" t="s">
-        <v>198</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
       </c>
       <c r="E7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F7" t="s">
         <v>199</v>
-      </c>
-      <c r="F7" t="s">
-        <v>200</v>
       </c>
       <c r="G7" s="1">
         <v>44377</v>
@@ -2343,19 +2323,19 @@
         <v>190</v>
       </c>
       <c r="B8" t="s">
+        <v>200</v>
+      </c>
+      <c r="C8" t="s">
         <v>201</v>
-      </c>
-      <c r="C8" t="s">
-        <v>202</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
       </c>
       <c r="E8" t="s">
+        <v>202</v>
+      </c>
+      <c r="F8" t="s">
         <v>203</v>
-      </c>
-      <c r="F8" t="s">
-        <v>204</v>
       </c>
       <c r="G8" s="1">
         <v>44377</v>
@@ -2372,19 +2352,19 @@
         <v>190</v>
       </c>
       <c r="B9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D9" t="s">
         <v>19</v>
       </c>
       <c r="E9" t="s">
+        <v>202</v>
+      </c>
+      <c r="F9" t="s">
         <v>203</v>
-      </c>
-      <c r="F9" t="s">
-        <v>204</v>
       </c>
       <c r="G9" s="1">
         <v>44377</v>
@@ -2398,7 +2378,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B10" t="s">
         <v>89</v>
@@ -2410,7 +2390,7 @@
         <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F10" t="s">
         <v>92</v>
@@ -2427,7 +2407,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B11" t="s">
         <v>117</v>
@@ -2439,7 +2419,7 @@
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F11" t="s">
         <v>120</v>
@@ -2468,7 +2448,7 @@
         <v>41</v>
       </c>
       <c r="E12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F12" t="s">
         <v>115</v>
@@ -2497,7 +2477,7 @@
         <v>41</v>
       </c>
       <c r="E13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F13" t="s">
         <v>108</v>
@@ -2506,10 +2486,10 @@
         <v>44377</v>
       </c>
       <c r="H13" t="s">
+        <v>211</v>
+      </c>
+      <c r="I13" t="s">
         <v>212</v>
-      </c>
-      <c r="I13" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="14">
@@ -2526,7 +2506,7 @@
         <v>19</v>
       </c>
       <c r="E14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F14" t="s">
         <v>97</v>
@@ -2538,7 +2518,7 @@
         <v>98</v>
       </c>
       <c r="I14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15">
@@ -2555,7 +2535,7 @@
         <v>19</v>
       </c>
       <c r="E15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F15" t="s">
         <v>103</v>
@@ -2572,10 +2552,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>216</v>
+      </c>
+      <c r="B16" t="s">
         <v>217</v>
-      </c>
-      <c r="B16" t="s">
-        <v>218</v>
       </c>
       <c r="C16" t="s">
         <v>128</v>
@@ -2584,7 +2564,7 @@
         <v>19</v>
       </c>
       <c r="E16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F16" t="s">
         <v>130</v>
@@ -2596,7 +2576,7 @@
         <v>98</v>
       </c>
       <c r="I16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="17">
@@ -2613,7 +2593,7 @@
         <v>19</v>
       </c>
       <c r="E17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F17" t="s">
         <v>135</v>
@@ -2642,7 +2622,7 @@
         <v>12</v>
       </c>
       <c r="E18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F18" t="s">
         <v>159</v>
@@ -2654,7 +2634,7 @@
         <v>160</v>
       </c>
       <c r="I18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="19">
@@ -2671,7 +2651,7 @@
         <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F19" t="s">
         <v>171</v>
@@ -2680,10 +2660,10 @@
         <v>44377</v>
       </c>
       <c r="H19" t="s">
+        <v>211</v>
+      </c>
+      <c r="I19" t="s">
         <v>212</v>
-      </c>
-      <c r="I19" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="20">
@@ -2700,7 +2680,7 @@
         <v>173</v>
       </c>
       <c r="E20" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F20" t="s">
         <v>171</v>
@@ -2709,10 +2689,10 @@
         <v>44377</v>
       </c>
       <c r="H20" t="s">
+        <v>211</v>
+      </c>
+      <c r="I20" t="s">
         <v>212</v>
-      </c>
-      <c r="I20" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="21">
@@ -2729,7 +2709,7 @@
         <v>12</v>
       </c>
       <c r="E21" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F21" t="s">
         <v>166</v>
@@ -2758,7 +2738,7 @@
         <v>19</v>
       </c>
       <c r="E22" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F22" t="s">
         <v>166</v>
@@ -2787,7 +2767,7 @@
         <v>12</v>
       </c>
       <c r="E23" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F23" t="s">
         <v>178</v>
@@ -2804,22 +2784,22 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
+        <v>227</v>
+      </c>
+      <c r="B24" t="s">
         <v>228</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>229</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>230</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>231</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>232</v>
-      </c>
-      <c r="F24" t="s">
-        <v>233</v>
       </c>
       <c r="G24" s="1">
         <v>44377</v>
@@ -2833,22 +2813,22 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
+        <v>227</v>
+      </c>
+      <c r="B25" t="s">
         <v>228</v>
       </c>
-      <c r="B25" t="s">
-        <v>229</v>
-      </c>
       <c r="C25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D25" t="s">
         <v>12</v>
       </c>
       <c r="E25" t="s">
+        <v>234</v>
+      </c>
+      <c r="F25" t="s">
         <v>235</v>
-      </c>
-      <c r="F25" t="s">
-        <v>236</v>
       </c>
       <c r="G25" s="1">
         <v>44377</v>
@@ -2907,22 +2887,22 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B2" t="s">
         <v>237</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>238</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>239</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>240</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>241</v>
-      </c>
-      <c r="F2" t="s">
-        <v>242</v>
       </c>
       <c r="G2" s="1">
         <v>44620</v>
@@ -2931,27 +2911,27 @@
         <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B3" t="s">
         <v>237</v>
       </c>
-      <c r="B3" t="s">
-        <v>238</v>
-      </c>
       <c r="C3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D3" t="s">
         <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G3" s="1">
         <v>44620</v>
@@ -2960,27 +2940,27 @@
         <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B4" t="s">
         <v>237</v>
       </c>
-      <c r="B4" t="s">
-        <v>238</v>
-      </c>
       <c r="C4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G4" s="1">
         <v>44620</v>
@@ -2989,27 +2969,27 @@
         <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B5" t="s">
+        <v>246</v>
+      </c>
+      <c r="C5" t="s">
         <v>247</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>248</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>249</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>250</v>
-      </c>
-      <c r="F5" t="s">
-        <v>251</v>
       </c>
       <c r="G5" s="1">
         <v>44620</v>
@@ -3018,27 +2998,27 @@
         <v>22</v>
       </c>
       <c r="I5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B6" t="s">
+        <v>252</v>
+      </c>
+      <c r="C6" t="s">
         <v>253</v>
-      </c>
-      <c r="C6" t="s">
-        <v>254</v>
       </c>
       <c r="D6" t="s">
         <v>19</v>
       </c>
       <c r="E6" t="s">
+        <v>249</v>
+      </c>
+      <c r="F6" t="s">
         <v>250</v>
-      </c>
-      <c r="F6" t="s">
-        <v>251</v>
       </c>
       <c r="G6" s="1">
         <v>44620</v>
@@ -3047,123 +3027,123 @@
         <v>22</v>
       </c>
       <c r="I6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B7" t="s">
         <v>255</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>256</v>
-      </c>
-      <c r="C7" t="s">
-        <v>257</v>
       </c>
       <c r="D7" t="s">
         <v>19</v>
       </c>
       <c r="E7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F7" t="s">
         <v>258</v>
-      </c>
-      <c r="F7" t="s">
-        <v>259</v>
       </c>
       <c r="G7" s="1">
         <v>44620</v>
       </c>
       <c r="H7" t="s">
+        <v>259</v>
+      </c>
+      <c r="I7" t="s">
         <v>260</v>
-      </c>
-      <c r="I7" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>254</v>
+      </c>
+      <c r="B8" t="s">
         <v>255</v>
       </c>
-      <c r="B8" t="s">
-        <v>256</v>
-      </c>
       <c r="C8" t="s">
+        <v>261</v>
+      </c>
+      <c r="D8" t="s">
+        <v>239</v>
+      </c>
+      <c r="E8" t="s">
         <v>262</v>
       </c>
-      <c r="D8" t="s">
-        <v>240</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>263</v>
-      </c>
-      <c r="F8" t="s">
-        <v>264</v>
       </c>
       <c r="G8" s="1">
         <v>44620</v>
       </c>
       <c r="H8" t="s">
+        <v>259</v>
+      </c>
+      <c r="I8" t="s">
         <v>260</v>
-      </c>
-      <c r="I8" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>264</v>
+      </c>
+      <c r="B9" t="s">
         <v>265</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>266</v>
-      </c>
-      <c r="C9" t="s">
-        <v>267</v>
       </c>
       <c r="D9" t="s">
         <v>19</v>
       </c>
       <c r="E9" t="s">
+        <v>267</v>
+      </c>
+      <c r="F9" t="s">
         <v>268</v>
-      </c>
-      <c r="F9" t="s">
-        <v>269</v>
       </c>
       <c r="G9" s="1">
         <v>44620</v>
       </c>
       <c r="H9" t="s">
+        <v>259</v>
+      </c>
+      <c r="I9" t="s">
         <v>260</v>
-      </c>
-      <c r="I9" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>269</v>
+      </c>
+      <c r="B10" t="s">
         <v>270</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>271</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>272</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>273</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>274</v>
-      </c>
-      <c r="F10" t="s">
-        <v>275</v>
       </c>
       <c r="G10" s="1">
         <v>44620</v>
       </c>
       <c r="H10" t="s">
+        <v>275</v>
+      </c>
+      <c r="I10" t="s">
         <v>276</v>
-      </c>
-      <c r="I10" t="s">
-        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -3213,22 +3193,22 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B2" t="s">
         <v>237</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>238</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>239</v>
       </c>
-      <c r="D2" t="s">
-        <v>240</v>
-      </c>
       <c r="E2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G2" s="1">
         <v>44620</v>
@@ -3237,27 +3217,27 @@
         <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B3" t="s">
         <v>237</v>
       </c>
-      <c r="B3" t="s">
-        <v>238</v>
-      </c>
       <c r="C3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G3" s="1">
         <v>44620</v>
@@ -3266,27 +3246,27 @@
         <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B4" t="s">
         <v>237</v>
       </c>
-      <c r="B4" t="s">
-        <v>238</v>
-      </c>
       <c r="C4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D4" t="s">
         <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G4" s="1">
         <v>44620</v>
@@ -3295,27 +3275,27 @@
         <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B5" t="s">
+        <v>246</v>
+      </c>
+      <c r="C5" t="s">
         <v>247</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>248</v>
       </c>
-      <c r="D5" t="s">
-        <v>249</v>
-      </c>
       <c r="E5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G5" s="1">
         <v>44620</v>
@@ -3324,27 +3304,27 @@
         <v>22</v>
       </c>
       <c r="I5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B6" t="s">
+        <v>252</v>
+      </c>
+      <c r="C6" t="s">
         <v>253</v>
       </c>
-      <c r="C6" t="s">
-        <v>254</v>
-      </c>
       <c r="D6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G6" s="1">
         <v>44620</v>
@@ -3353,152 +3333,152 @@
         <v>22</v>
       </c>
       <c r="I6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B7" t="s">
         <v>255</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>256</v>
-      </c>
-      <c r="C7" t="s">
-        <v>257</v>
       </c>
       <c r="D7" t="s">
         <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G7" s="1">
         <v>44620</v>
       </c>
       <c r="H7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>254</v>
+      </c>
+      <c r="B8" t="s">
         <v>255</v>
       </c>
-      <c r="B8" t="s">
-        <v>256</v>
-      </c>
       <c r="C8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G8" s="1">
         <v>44620</v>
       </c>
       <c r="H8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>285</v>
+      </c>
+      <c r="B9" t="s">
+        <v>265</v>
+      </c>
+      <c r="C9" t="s">
         <v>286</v>
-      </c>
-      <c r="B9" t="s">
-        <v>287</v>
-      </c>
-      <c r="C9" t="s">
-        <v>288</v>
       </c>
       <c r="D9" t="s">
         <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G9" s="1">
         <v>44620</v>
       </c>
       <c r="H9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B10" t="s">
-        <v>287</v>
+        <v>265</v>
       </c>
       <c r="C10" t="s">
+        <v>288</v>
+      </c>
+      <c r="D10" t="s">
+        <v>239</v>
+      </c>
+      <c r="E10" t="s">
+        <v>289</v>
+      </c>
+      <c r="F10" t="s">
         <v>290</v>
-      </c>
-      <c r="D10" t="s">
-        <v>240</v>
-      </c>
-      <c r="E10" t="s">
-        <v>291</v>
-      </c>
-      <c r="F10" t="s">
-        <v>292</v>
       </c>
       <c r="G10" s="1">
         <v>44620</v>
       </c>
       <c r="H10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>269</v>
+      </c>
+      <c r="B11" t="s">
         <v>270</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>271</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>272</v>
       </c>
-      <c r="D11" t="s">
-        <v>273</v>
-      </c>
       <c r="E11" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G11" s="1">
         <v>44620</v>
       </c>
       <c r="H11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I11" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>
